--- a/data/trans_camb/P16A_n_R3-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A_n_R3-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.896011153631643</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.950404437297875</v>
+        <v>8.950404437297879</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.834297712542844</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7537479070787149</v>
+        <v>-0.5343676256917608</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1028397955584118</v>
+        <v>0.1324284156610412</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.431366067668478</v>
+        <v>6.624755277561036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.801698065614941</v>
+        <v>3.763855340469702</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.792058719549002</v>
+        <v>2.898876873228101</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.80101659076122</v>
+        <v>17.03981462658724</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.582765835429589</v>
+        <v>2.482032258222164</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.069125609567575</v>
+        <v>2.150927836616886</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.56535242447637</v>
+        <v>13.19733481474331</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.01454646071113</v>
+        <v>3.218517268697634</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.695514328620219</v>
+        <v>3.800078667295782</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.46775257921522</v>
+        <v>11.91351577878883</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.821061836295656</v>
+        <v>8.129213924303853</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.429399464500587</v>
+        <v>7.239053061684529</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.10862919762411</v>
+        <v>22.27793735325417</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.360387983653441</v>
+        <v>5.455912890190739</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.097593525995846</v>
+        <v>5.385364111491208</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.24892101723445</v>
+        <v>17.10400630309735</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.6096150811819735</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2.877779235213766</v>
+        <v>2.877779235213767</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.198726410268425</v>
@@ -769,7 +769,7 @@
         <v>0.8993376332801942</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>3.728986460575276</v>
+        <v>3.728986460575274</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1816903138173303</v>
+        <v>-0.1329033203794957</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.01776330004554532</v>
+        <v>0.02279314157245492</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.593836408172489</v>
+        <v>1.67381106557889</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6407953111707366</v>
+        <v>0.6241117933046326</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5054846401139166</v>
+        <v>0.4984828145981796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>2.881665955840798</v>
+        <v>2.8683975649144</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5734427164122281</v>
+        <v>0.5333512724689271</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4388050492351906</v>
+        <v>0.4498440770000171</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>2.876980518554564</v>
+        <v>2.771173705802307</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.25029025897849</v>
+        <v>1.457751638522093</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.580514895498832</v>
+        <v>1.61269601847878</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.672350001808504</v>
+        <v>4.787654095717174</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.885193350087774</v>
+        <v>1.920108333952385</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.895001648983739</v>
+        <v>1.679619720917015</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.471514981417129</v>
+        <v>5.475826686393627</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.554873084980033</v>
+        <v>1.543294498147702</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.423966304500165</v>
+        <v>1.553967061120229</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.999471948837984</v>
+        <v>4.980975247406757</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.03710202544182023</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.91247693744535</v>
+        <v>2.912476937445349</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.05605644741248188</v>
@@ -869,7 +869,7 @@
         <v>0.9080599318223042</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.445005666006494</v>
+        <v>4.445005666006493</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.01035425174174039</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5698906890526166</v>
+        <v>-0.5684480634160918</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5733542913271507</v>
+        <v>-0.5105858136949203</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.107101268877992</v>
+        <v>2.121423168116922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7414800277321958</v>
+        <v>-0.7469195307625726</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.02176612388995918</v>
+        <v>0.03957569340097877</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.525825654785918</v>
+        <v>3.397524802759814</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.5003503473106171</v>
+        <v>-0.4986130940169644</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.05315278838251471</v>
+        <v>-0.05101623064345641</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.013367777391588</v>
+        <v>3.017230319903923</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.509898403278274</v>
+        <v>0.5209383534753884</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.573087101436885</v>
+        <v>0.5536284429186756</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.886341741962891</v>
+        <v>3.770705800899426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9221353615661297</v>
+        <v>0.9495639609806376</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.796976202409724</v>
+        <v>1.885878190782838</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.393984246184067</v>
+        <v>5.346262437968145</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4534420500902826</v>
+        <v>0.459529463120025</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.022667770290091</v>
+        <v>0.9897396922072612</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.319076173792175</v>
+        <v>4.301566125546278</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.05426816246747902</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>4.260003860757306</v>
+        <v>4.260003860757305</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.04080071756494483</v>
@@ -974,7 +974,7 @@
         <v>0.6609319448609084</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>3.235299936487374</v>
+        <v>3.235299936487373</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01017444996173498</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6119577362042325</v>
+        <v>-0.6225437963699831</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5805526610669171</v>
+        <v>-0.5402823151168626</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.855149143062969</v>
+        <v>1.870108454727487</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4253173357065186</v>
+        <v>-0.4129522269533374</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05364804771272694</v>
+        <v>-0.01538049145331272</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.816666806135174</v>
+        <v>1.790066059322622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3889642671298517</v>
+        <v>-0.3974381315566941</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0526062941342755</v>
+        <v>-0.03252133745158341</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2.377827930381105</v>
+        <v>2.194488188166392</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.298607554360393</v>
+        <v>1.266316142405195</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.436779924724485</v>
+        <v>1.272281632977667</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9.515737731956017</v>
+        <v>9.203169244217502</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.025716630279008</v>
+        <v>1.010518110413431</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.954080154211925</v>
+        <v>1.877874208103929</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.555867722493359</v>
+        <v>5.780418073179031</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.592107619746994</v>
+        <v>0.5847545831150688</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.341079171579321</v>
+        <v>1.2793284788915</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5.800336228301165</v>
+        <v>5.637405558364549</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.4948495843721488</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.580436189622939</v>
+        <v>2.580436189622938</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8402222220714342</v>
+        <v>-0.8702351743168409</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.190008895048615</v>
+        <v>-1.192256155938205</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2794314545864677</v>
+        <v>0.4151070864692535</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.523904514755269</v>
+        <v>0.6397357971263302</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2284233885826969</v>
+        <v>0.1501358810268628</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.419614264027146</v>
+        <v>2.476411172622305</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1061284457744307</v>
+        <v>0.08642216116353295</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1997075599909406</v>
+        <v>-0.3337427382064317</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.762688610679034</v>
+        <v>1.695315628982461</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.47680851627356</v>
+        <v>2.761517935944151</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9104938960720298</v>
+        <v>0.8506690111603414</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.823441102032169</v>
+        <v>3.032421161796062</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.421521651620966</v>
+        <v>3.377518093518259</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.62152939460141</v>
+        <v>2.693898175897083</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.976829916163594</v>
+        <v>5.141846764294034</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.340464024905681</v>
+        <v>2.222307423240962</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.415990015024406</v>
+        <v>1.405923488887542</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.547659924263545</v>
+        <v>3.481740044024555</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.8659962804520148</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4.51581291109397</v>
+        <v>4.515812911093969</v>
       </c>
     </row>
     <row r="20">
@@ -1214,19 +1214,19 @@
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.07942149632917349</v>
+        <v>0.100022943486408</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.02550222541558762</v>
+        <v>-0.1376160933612687</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3450392408571396</v>
+        <v>-0.4700096996647661</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.653921142288271</v>
+        <v>1.250850104181987</v>
       </c>
     </row>
     <row r="21">
@@ -1237,25 +1237,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.847916311839886</v>
+        <v>7.376725204731623</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.23734533921074</v>
+        <v>3.722325984661495</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>7.499016908346086</v>
+        <v>9.48334198841175</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>7.450383618983834</v>
+        <v>7.776790907438674</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>5.38020151193157</v>
+        <v>6.18955447888169</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>15.30159573975069</v>
+        <v>14.1174929646405</v>
       </c>
     </row>
     <row r="22">
@@ -1305,31 +1305,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3313754660032565</v>
+        <v>-0.3850279757083988</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.4187456127303742</v>
+        <v>-0.4311719032652542</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.534098799220303</v>
+        <v>2.508793633481142</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.492398338579483</v>
+        <v>1.486570406216476</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8122088003022473</v>
+        <v>0.8430287863578599</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.925052364797813</v>
+        <v>6.013754934620343</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.811924393614881</v>
+        <v>0.8237379167045289</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.410836731459838</v>
+        <v>0.4318883196410946</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.568493895416836</v>
+        <v>4.594544114608421</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1340,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.022500714741019</v>
+        <v>1.017749664017765</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7795858555582765</v>
+        <v>0.7254897002783114</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.111253369176212</v>
+        <v>4.028909358363697</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.407653683832857</v>
+        <v>3.353185349283267</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.684294848543373</v>
+        <v>2.670182754240892</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.780180193257304</v>
+        <v>7.866945237690665</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.962861500543983</v>
+        <v>1.930459397341344</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.509406007298162</v>
+        <v>1.500216934984439</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.80340240855023</v>
+        <v>5.782049501929212</v>
       </c>
     </row>
     <row r="25">
@@ -1381,7 +1381,7 @@
         <v>0.1273386804041209</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>2.218174220444031</v>
+        <v>2.21817422044403</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.9369293748562837</v>
@@ -1410,31 +1410,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2068566946737837</v>
+        <v>-0.2235450487940233</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2410831224575837</v>
+        <v>-0.2581672672342649</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.36614066085037</v>
+        <v>1.370716833431026</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.5036008755595532</v>
+        <v>0.496904079785996</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2502340021881529</v>
+        <v>0.2840226997209475</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.912215821370654</v>
+        <v>1.955725082517503</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3426218982281006</v>
+        <v>0.359959175690521</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1770946201147111</v>
+        <v>0.1809034506764148</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.93045507258056</v>
+        <v>1.922756499418019</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1445,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8670778901549111</v>
+        <v>0.8515266300151589</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6426946967052954</v>
+        <v>0.6264698821802868</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.639394051871424</v>
+        <v>3.412099882885633</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.528213475884389</v>
+        <v>1.500934526466086</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.174096375463163</v>
+        <v>1.234711276923173</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>3.617560476840907</v>
+        <v>3.597455742649338</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.078590020908736</v>
+        <v>1.055983798898392</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8327451727167573</v>
+        <v>0.8361858750365245</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.300752028710178</v>
+        <v>3.234709540961509</v>
       </c>
     </row>
     <row r="28">
